--- a/OperationalApplicationSystem/src/main/webapp/templet/CustomsJde.xlsx
+++ b/OperationalApplicationSystem/src/main/webapp/templet/CustomsJde.xlsx
@@ -1,18 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C09A632-62A1-48F6-8F73-0C2F3930AE41}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaozhouhao/JAVA/OperationalApplicationSystem/OperationalApplicationSystem/src/main/webapp/templet/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Business Unit</t>
   </si>
@@ -109,58 +119,12 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
-  <si>
-    <t xml:space="preserve">          60</t>
-  </si>
-  <si>
-    <t>YD</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>N265DP47</t>
-  </si>
-  <si>
-    <t>OV</t>
-  </si>
-  <si>
-    <t>Inventory Receipt</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>8168-1</t>
-  </si>
-  <si>
-    <t>201810150041</t>
-  </si>
-  <si>
-    <t>DKANG</t>
-  </si>
-  <si>
-    <t>STL LOCK NUT 1 3/8" 8 UN N265DP47, ASTM A194 Gr2H</t>
-  </si>
-  <si>
-    <t>18108013</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>等于当天上传日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="dd/mm/yyyy;@"/>
-  </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,14 +150,6 @@
       <sz val="10"/>
       <name val="等线"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="4" tint="-0.249977111117893"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -222,22 +178,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -517,16 +463,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
   </cols>
   <sheetData>
@@ -610,80 +556,6 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="4">
-        <v>600410</v>
-      </c>
-      <c r="D2" s="5">
-        <v>43388</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="4">
-        <v>1715705</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="4">
-        <v>70</v>
-      </c>
-      <c r="K2" s="4">
-        <v>13592.8</v>
-      </c>
-      <c r="L2" s="5">
-        <v>43388</v>
-      </c>
-      <c r="M2" s="4">
-        <v>242357</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="X2" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
